--- a/2_bundesliga_analyse_gesamt.xlsx
+++ b/2_bundesliga_analyse_gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meinert\Documents\fussballanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE903F-8DFE-4FB0-8F51-BB79DCA4E44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8486A3D7-0538-467F-A259-8BF5CF8A02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-975" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,8 +574,8 @@
   <dimension ref="A1:R613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D569" sqref="D569"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32860,8 +32860,8 @@
   <dimension ref="A1:Q1115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
